--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0947DD-4FAB-4AB7-8090-9C3EBA80B270}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FF3CB7-4BFA-4D96-BE63-7BBD91EFAEFD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Feature</t>
   </si>
@@ -34,43 +34,49 @@
     <t>Trailer stop loss</t>
   </si>
   <si>
-    <t>Trailer stop loss for buy and sell orders, and with stop loss in the other direction.</t>
-  </si>
-  <si>
     <t>Techncial Features</t>
   </si>
   <si>
     <t>service</t>
   </si>
   <si>
-    <t>saving log of trades</t>
-  </si>
-  <si>
-    <t>build GUI</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t>Range trading bot</t>
   </si>
   <si>
     <t>Automate range traing with stop loss on upper and lower limits.</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>Discovery</t>
   </si>
   <si>
-    <t>Tend bot</t>
-  </si>
-  <si>
     <t>Automatic trading based on different strategies, Moving averages, Indicators, RSI, etc.</t>
+  </si>
+  <si>
+    <t>saving log of trades using pandas</t>
+  </si>
+  <si>
+    <t>Trailer stop loss for buy and sell orders, and with stop loss in the other direction for binance</t>
+  </si>
+  <si>
+    <t>Arbitrage bot</t>
+  </si>
+  <si>
+    <t>Strategy builder</t>
+  </si>
+  <si>
+    <t>Statistics and reports</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Build GUI</t>
+  </si>
+  <si>
+    <t>Trend bot</t>
+  </si>
+  <si>
+    <t>ICT bot</t>
   </si>
 </sst>
 </file>
@@ -114,9 +120,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,17 +409,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" customWidth="1"/>
+    <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -415,65 +427,85 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FF3CB7-4BFA-4D96-BE63-7BBD91EFAEFD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E692C717-DAA1-4479-AD96-EFF4C8DFA3F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Feature</t>
   </si>
@@ -40,18 +40,9 @@
     <t>service</t>
   </si>
   <si>
-    <t>Range trading bot</t>
-  </si>
-  <si>
-    <t>Automate range traing with stop loss on upper and lower limits.</t>
-  </si>
-  <si>
     <t>Discovery</t>
   </si>
   <si>
-    <t>Automatic trading based on different strategies, Moving averages, Indicators, RSI, etc.</t>
-  </si>
-  <si>
     <t>saving log of trades using pandas</t>
   </si>
   <si>
@@ -61,9 +52,6 @@
     <t>Arbitrage bot</t>
   </si>
   <si>
-    <t>Strategy builder</t>
-  </si>
-  <si>
     <t>Statistics and reports</t>
   </si>
   <si>
@@ -73,10 +61,49 @@
     <t>Build GUI</t>
   </si>
   <si>
-    <t>Trend bot</t>
-  </si>
-  <si>
     <t>ICT bot</t>
+  </si>
+  <si>
+    <t>MA &amp; EMA cross bot</t>
+  </si>
+  <si>
+    <t>Momentum Indicators bot</t>
+  </si>
+  <si>
+    <t>Mix Bot</t>
+  </si>
+  <si>
+    <t>Automate buy and sell based on the cross of the moving averages</t>
+  </si>
+  <si>
+    <t>Automate buy and sell based on indicators like the RSA or MACD.</t>
+  </si>
+  <si>
+    <t>Combine overlap bot with momentum bot</t>
+  </si>
+  <si>
+    <t>Candle pattern recognition for ICT order blocks.</t>
+  </si>
+  <si>
+    <t>Ice berg orders bot</t>
+  </si>
+  <si>
+    <t>Ice berg bot</t>
+  </si>
+  <si>
+    <t>Basic bot</t>
+  </si>
+  <si>
+    <t>History emulation</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Demo run feature</t>
+  </si>
+  <si>
+    <t>run with actual sell and buy on market price</t>
   </si>
 </sst>
 </file>
@@ -409,17 +436,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -430,7 +457,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -442,71 +469,127 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>10</v>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>12</v>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
